--- a/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
@@ -689,7 +689,7 @@
         <v>22904</v>
       </c>
       <c r="C16" t="n">
-        <v>25964</v>
+        <v>25965</v>
       </c>
       <c r="D16" t="n">
         <v>18</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6209</v>
+        <v>6210</v>
       </c>
       <c r="C17" t="n">
         <v>2472</v>
@@ -801,7 +801,7 @@
         <v>1551</v>
       </c>
       <c r="C23" t="n">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C24" t="n">
         <v>1476</v>

--- a/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22904</v>
+        <v>22905</v>
       </c>
       <c r="C16" t="n">
         <v>25965</v>

--- a/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="C2" t="n">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="C7" t="n">
         <v>1859</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="C8" t="n">
         <v>3124</v>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22905</v>
+        <v>22912</v>
       </c>
       <c r="C16" t="n">
-        <v>25965</v>
+        <v>25970</v>
       </c>
       <c r="D16" t="n">
         <v>18</v>
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6210</v>
+        <v>6211</v>
       </c>
       <c r="C17" t="n">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="C18" t="n">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -737,7 +737,7 @@
         <v>2191</v>
       </c>
       <c r="C19" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -753,7 +753,7 @@
         <v>10101</v>
       </c>
       <c r="C20" t="n">
-        <v>7077</v>
+        <v>7080</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="C25" t="n">
         <v>1439</v>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9756</v>
+        <v>9757</v>
       </c>
       <c r="C26" t="n">
         <v>2900</v>

--- a/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2039</v>
+        <v>2071</v>
       </c>
       <c r="C2" t="n">
-        <v>2690</v>
+        <v>2731</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2946</v>
+        <v>2949</v>
       </c>
       <c r="C3" t="n">
         <v>2172</v>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="C4" t="n">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -513,7 +513,7 @@
         <v>537</v>
       </c>
       <c r="C5" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3428</v>
+        <v>3430</v>
       </c>
       <c r="C6" t="n">
         <v>1245</v>
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2414</v>
+        <v>2429</v>
       </c>
       <c r="C8" t="n">
-        <v>3124</v>
+        <v>3141</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8525</v>
+        <v>8527</v>
       </c>
       <c r="C9" t="n">
         <v>5061</v>
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7392</v>
+        <v>7417</v>
       </c>
       <c r="C10" t="n">
-        <v>5794</v>
+        <v>5802</v>
       </c>
       <c r="D10" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7831</v>
+        <v>7873</v>
       </c>
       <c r="C12" t="n">
-        <v>8121</v>
+        <v>8146</v>
       </c>
       <c r="D12" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4315</v>
+        <v>4318</v>
       </c>
       <c r="C13" t="n">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="D13" t="n">
         <v>17</v>
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1821</v>
+        <v>1827</v>
       </c>
       <c r="C14" t="n">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18269</v>
+        <v>18276</v>
       </c>
       <c r="C15" t="n">
         <v>5494</v>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22912</v>
+        <v>22956</v>
       </c>
       <c r="C16" t="n">
-        <v>25970</v>
+        <v>26025</v>
       </c>
       <c r="D16" t="n">
         <v>18</v>
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6211</v>
+        <v>6236</v>
       </c>
       <c r="C17" t="n">
-        <v>2475</v>
+        <v>2486</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2860</v>
+        <v>2869</v>
       </c>
       <c r="C18" t="n">
-        <v>2575</v>
+        <v>2583</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2191</v>
+        <v>2208</v>
       </c>
       <c r="C19" t="n">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10101</v>
+        <v>10137</v>
       </c>
       <c r="C20" t="n">
-        <v>7080</v>
+        <v>7101</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C21" t="n">
         <v>2305</v>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5945</v>
+        <v>5955</v>
       </c>
       <c r="C22" t="n">
-        <v>6516</v>
+        <v>6523</v>
       </c>
       <c r="D22" t="n">
         <v>5</v>
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="C23" t="n">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C24" t="n">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1874</v>
+        <v>1889</v>
       </c>
       <c r="C25" t="n">
-        <v>1439</v>
+        <v>1454</v>
       </c>
       <c r="D25" t="n">
         <v>5</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9757</v>
+        <v>9771</v>
       </c>
       <c r="C26" t="n">
-        <v>2900</v>
+        <v>2903</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4707</v>
+        <v>4711</v>
       </c>
       <c r="C27" t="n">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13334</v>
+        <v>13362</v>
       </c>
       <c r="C29" t="n">
-        <v>6063</v>
+        <v>6088</v>
       </c>
       <c r="D29" t="n">
         <v>22</v>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C30" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8472</v>
+        <v>8475</v>
       </c>
       <c r="C31" t="n">
-        <v>4481</v>
+        <v>4484</v>
       </c>
       <c r="D31" t="n">
         <v>44</v>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="C32" t="n">
         <v>4299</v>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3999</v>
+        <v>4020</v>
       </c>
       <c r="C33" t="n">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>

--- a/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
+++ b/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071</v>
+        <v>2225</v>
       </c>
       <c r="C2" t="n">
-        <v>2731</v>
+        <v>2918</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2949</v>
+        <v>3192</v>
       </c>
       <c r="C3" t="n">
-        <v>2172</v>
+        <v>2216</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1198</v>
+        <v>1361</v>
       </c>
       <c r="C4" t="n">
-        <v>564</v>
+        <v>687</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>537</v>
+        <v>589</v>
       </c>
       <c r="C5" t="n">
-        <v>772</v>
+        <v>814</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3430</v>
+        <v>3473</v>
       </c>
       <c r="C6" t="n">
-        <v>1245</v>
+        <v>1260</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2315</v>
+        <v>2371</v>
       </c>
       <c r="C7" t="n">
-        <v>1859</v>
+        <v>1867</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2429</v>
+        <v>2821</v>
       </c>
       <c r="C8" t="n">
-        <v>3141</v>
+        <v>3458</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8527</v>
+        <v>8567</v>
       </c>
       <c r="C9" t="n">
-        <v>5061</v>
+        <v>5093</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7417</v>
+        <v>8253</v>
       </c>
       <c r="C10" t="n">
-        <v>5802</v>
+        <v>6315</v>
       </c>
       <c r="D10" t="n">
         <v>310</v>
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1947</v>
+        <v>2335</v>
       </c>
       <c r="C11" t="n">
-        <v>1395</v>
+        <v>1640</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7873</v>
+        <v>7952</v>
       </c>
       <c r="C12" t="n">
-        <v>8146</v>
+        <v>8165</v>
       </c>
       <c r="D12" t="n">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4318</v>
+        <v>4490</v>
       </c>
       <c r="C13" t="n">
-        <v>1663</v>
+        <v>1703</v>
       </c>
       <c r="D13" t="n">
         <v>17</v>
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827</v>
+        <v>2002</v>
       </c>
       <c r="C14" t="n">
-        <v>2025</v>
+        <v>2146</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18276</v>
+        <v>18357</v>
       </c>
       <c r="C15" t="n">
-        <v>5494</v>
+        <v>5516</v>
       </c>
       <c r="D15" t="n">
         <v>21</v>
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22956</v>
+        <v>24383</v>
       </c>
       <c r="C16" t="n">
-        <v>26025</v>
+        <v>27312</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6236</v>
+        <v>6803</v>
       </c>
       <c r="C17" t="n">
-        <v>2486</v>
+        <v>2651</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2869</v>
+        <v>3037</v>
       </c>
       <c r="C18" t="n">
-        <v>2583</v>
+        <v>2739</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2208</v>
+        <v>2381</v>
       </c>
       <c r="C19" t="n">
-        <v>925</v>
+        <v>1028</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10137</v>
+        <v>10924</v>
       </c>
       <c r="C20" t="n">
-        <v>7101</v>
+        <v>7631</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1674</v>
+        <v>1734</v>
       </c>
       <c r="C21" t="n">
-        <v>2305</v>
+        <v>2337</v>
       </c>
       <c r="D21" t="n">
         <v>8</v>
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5955</v>
+        <v>6504</v>
       </c>
       <c r="C22" t="n">
-        <v>6523</v>
+        <v>7138</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1556</v>
+        <v>1592</v>
       </c>
       <c r="C23" t="n">
-        <v>1309</v>
+        <v>1322</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1337</v>
+        <v>1467</v>
       </c>
       <c r="C24" t="n">
-        <v>1479</v>
+        <v>1535</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1889</v>
+        <v>2281</v>
       </c>
       <c r="C25" t="n">
-        <v>1454</v>
+        <v>1691</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9771</v>
+        <v>10046</v>
       </c>
       <c r="C26" t="n">
-        <v>2903</v>
+        <v>2975</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4711</v>
+        <v>4882</v>
       </c>
       <c r="C27" t="n">
-        <v>2297</v>
+        <v>2343</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C28" t="n">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13362</v>
+        <v>14014</v>
       </c>
       <c r="C29" t="n">
-        <v>6088</v>
+        <v>6271</v>
       </c>
       <c r="D29" t="n">
         <v>22</v>
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>371</v>
+        <v>682</v>
       </c>
       <c r="C30" t="n">
-        <v>412</v>
+        <v>822</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8475</v>
+        <v>8879</v>
       </c>
       <c r="C31" t="n">
-        <v>4484</v>
+        <v>4667</v>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="C32" t="n">
-        <v>4299</v>
+        <v>4297</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4020</v>
+        <v>4431</v>
       </c>
       <c r="C33" t="n">
-        <v>1650</v>
+        <v>1746</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C34" t="n">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D34" t="n">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
